--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.400000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.400000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>6.965864039098153e-47</v>
+        <v>6.99589836514275e-47</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>6.883704905383638e-47</v>
+        <v>6.918227856345025e-47</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>6.79549558348588e-47</v>
+        <v>6.832302608026081e-47</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>6.701841454465661e-47</v>
+        <v>6.738958466824956e-47</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>6.603347899383418e-47</v>
+        <v>6.639031279380347e-47</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>6.500620299299705e-47</v>
+        <v>6.533356892331064e-47</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>6.394264035274928e-47</v>
+        <v>6.42277115231577e-47</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>6.284884488369925e-47</v>
+        <v>6.308109905973563e-47</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>6.173087039645099e-47</v>
+        <v>6.190208999943109e-47</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>6.059477070160858e-47</v>
+        <v>6.069904280863058e-47</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>5.944659960978052e-47</v>
+        <v>5.948031595372537e-47</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>5.829241093157082e-47</v>
+        <v>5.825426790110198e-47</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>5.713825847758346e-47</v>
+        <v>5.702925711714687e-47</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>5.599019605842703e-47</v>
+        <v>5.581364206825139e-47</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>5.485427748470546e-47</v>
+        <v>5.461578122080197e-47</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>5.373655656702434e-47</v>
+        <v>5.344403304118675e-47</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>5.26430871159877e-47</v>
+        <v>5.230675599579232e-47</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>5.157992294220395e-47</v>
+        <v>5.121230855100976e-47</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>5.055296066665357e-47</v>
+        <v>5.016878612772655e-47</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>4.956493586795581e-47</v>
+        <v>4.917899437040153e-47</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>4.861565660275953e-47</v>
+        <v>4.824083992659581e-47</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>4.770482052841306e-47</v>
+        <v>4.735204469860536e-47</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>4.683212530226606e-47</v>
+        <v>4.651033058872736e-47</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>4.599726858166712e-47</v>
+        <v>4.571341949925806e-47</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>4.519994802396801e-47</v>
+        <v>4.495903333249674e-47</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.443986128651735e-47</v>
+        <v>4.424489399073958e-47</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.371670602666379e-47</v>
+        <v>4.356872337628293e-47</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.303017990175892e-47</v>
+        <v>4.29282433914258e-47</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>4.237998056915138e-47</v>
+        <v>4.232117593846451e-47</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>4.176580568619084e-47</v>
+        <v>4.174524291969629e-47</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.11873529102262e-47</v>
+        <v>4.119816623741766e-47</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.064431989860862e-47</v>
+        <v>4.067766779392727e-47</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.013640430868697e-47</v>
+        <v>4.018146949152163e-47</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>3.96633037978103e-47</v>
+        <v>3.970729323249737e-47</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>3.922413109234042e-47</v>
+        <v>3.925268734855585e-47</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>3.881408412793839e-47</v>
+        <v>3.881403850861624e-47</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>3.842675412600571e-47</v>
+        <v>3.838725661022027e-47</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>3.805572740918317e-47</v>
+        <v>3.796825009726793e-47</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>3.769459030011005e-47</v>
+        <v>3.755292741365755e-47</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.733692912142616e-47</v>
+        <v>3.713719700328799e-47</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.697633019577082e-47</v>
+        <v>3.671696731005756e-47</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.660637984578478e-47</v>
+        <v>3.628814677786627e-47</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.622066439410734e-47</v>
+        <v>3.584664385061241e-47</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>3.58127701633778e-47</v>
+        <v>3.538836697219427e-47</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.537628347623698e-47</v>
+        <v>3.490922458651193e-47</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>3.490479065532419e-47</v>
+        <v>3.440512513746366e-47</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>3.439187802327923e-47</v>
+        <v>3.387197706894836e-47</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>3.383113190274112e-47</v>
+        <v>3.330568882486411e-47</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>3.321613861635112e-47</v>
+        <v>3.27021688491113e-47</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>3.254108480609358e-47</v>
+        <v>3.205768957896804e-47</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>3.180787480873568e-47</v>
+        <v>3.137320294410577e-47</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.102376707516197e-47</v>
+        <v>3.06529072498298e-47</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.019612775723308e-47</v>
+        <v>2.990106610409151e-47</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.933232300680941e-47</v>
+        <v>2.91219431148421e-47</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.843971897575475e-47</v>
+        <v>2.831980189003589e-47</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.752568181592954e-47</v>
+        <v>2.749890603762411e-47</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.659757767919533e-47</v>
+        <v>2.666351916555902e-47</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.566277271741243e-47</v>
+        <v>2.581790488179176e-47</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.472863308244485e-47</v>
+        <v>2.496632679427681e-47</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.380252492615289e-47</v>
+        <v>2.41130485109653e-47</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.289181440039692e-47</v>
+        <v>2.326233363980838e-47</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.200371724694271e-47</v>
+        <v>2.24183809016064e-47</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.114175009407274e-47</v>
+        <v>2.158379321375334e-47</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.030559218756356e-47</v>
+        <v>2.075951804076423e-47</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.949474469761207e-47</v>
+        <v>1.994642602506693e-47</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.870870879441832e-47</v>
+        <v>1.914538780909246e-47</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.794698564817918e-47</v>
+        <v>1.835727403526866e-47</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.720907642909164e-47</v>
+        <v>1.758295534602343e-47</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.649448230735556e-47</v>
+        <v>1.68233023837877e-47</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.580270445316791e-47</v>
+        <v>1.607918579098935e-47</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.513324403672575e-47</v>
+        <v>1.535147621005635e-47</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.448560222822879e-47</v>
+        <v>1.46410442834195e-47</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.385928019787408e-47</v>
+        <v>1.394876065350676e-47</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.325377911585954e-47</v>
+        <v>1.327549596274701e-47</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.266860015238236e-47</v>
+        <v>1.262212085356832e-47</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.210324447764203e-47</v>
+        <v>1.198950596840132e-47</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.155721326183568e-47</v>
+        <v>1.137852194967404e-47</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.103000767516061e-47</v>
+        <v>1.079003943981462e-47</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.05211288878161e-47</v>
+        <v>1.022492908125351e-47</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.003007806999941e-47</v>
+        <v>9.684061516418835e-48</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>9.556356391908471e-48</v>
+        <v>9.168307387739493e-48</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>9.099465023740637e-48</v>
+        <v>8.678537337643771e-48</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>8.658905135695042e-48</v>
+        <v>8.21562200856185e-48</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>8.234177897969014e-48</v>
+        <v>7.780432042921979e-48</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>7.82478448075997e-48</v>
+        <v>7.37383808315255e-48</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>7.430226054266923e-48</v>
+        <v>6.996710771683534e-48</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>7.050003788687259e-48</v>
+        <v>6.649920750943282e-48</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>6.6841569869863e-48</v>
+        <v>6.334104158318356e-48</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>6.335522243071767e-48</v>
+        <v>6.048678140509453e-48</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>6.007842219769898e-48</v>
+        <v>5.79266500163925e-48</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>5.704860044764861e-48</v>
+        <v>5.565086843255008e-48</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>5.430318845740959e-48</v>
+        <v>5.36496576690414e-48</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>5.187961750383551e-48</v>
+        <v>5.19132387413482e-48</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>4.981531886376897e-48</v>
+        <v>5.043183266494426e-48</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>4.814772381405443e-48</v>
+        <v>4.919566045530466e-48</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>4.69142636315427e-48</v>
+        <v>4.819494312790919e-48</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>4.615236959307772e-48</v>
+        <v>4.741990169823264e-48</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>4.589947297550585e-48</v>
+        <v>4.686075718175151e-48</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>4.619300505567424e-48</v>
+        <v>4.650773059394205e-48</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>4.707039711042856e-48</v>
+        <v>4.635104295028174e-48</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>6.446108583031718e-50</v>
+        <v>6.384499660286946e-50</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>8.430242994655558e-50</v>
+        <v>8.415216708916524e-50</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>7.909007735154787e-50</v>
+        <v>7.823968037642341e-50</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>7.613679211858625e-50</v>
+        <v>7.579891073827785e-50</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>7.402377754467303e-50</v>
+        <v>7.443002491927641e-50</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>7.190057099279411e-50</v>
+        <v>7.237800723905626e-50</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>7.584960351985682e-50</v>
+        <v>7.575372929664337e-50</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>9.65846748409361e-50</v>
+        <v>9.592287527294675e-50</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.293412538890301e-49</v>
+        <v>1.288201365396929e-49</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.399863524321727e-49</v>
+        <v>1.40486292132087e-49</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.422305492634159e-49</v>
+        <v>1.432894065048728e-49</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.44114737283361e-49</v>
+        <v>1.445109941915186e-49</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.37770876471172e-49</v>
+        <v>1.366514657111158e-49</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.257559373907333e-49</v>
+        <v>1.24471008841927e-49</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.162133719677552e-49</v>
+        <v>1.182341815505795e-49</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.105981432179012e-49</v>
+        <v>1.148806220792862e-49</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.079757866866578e-49</v>
+        <v>1.100297281799978e-49</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0749668323243e-49</v>
+        <v>1.086042417784074e-49</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.026933210447468e-49</v>
+        <v>1.030193916030077e-49</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>9.573028402513489e-50</v>
+        <v>9.500421805388305e-50</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>9.044116508224218e-50</v>
+        <v>9.028627831533295e-50</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>8.473067786788167e-50</v>
+        <v>8.486900808042603e-50</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>7.920198809134684e-50</v>
+        <v>7.943304543378841e-50</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>7.460316393239797e-50</v>
+        <v>7.505956823701572e-50</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>7.066676764163663e-50</v>
+        <v>7.13511990463638e-50</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.701534902490293e-50</v>
+        <v>6.775038460898558e-50</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.328747682836782e-50</v>
+        <v>6.374309264038237e-50</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.928516496959161e-50</v>
+        <v>5.925934595486376e-50</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.490598093387521e-50</v>
+        <v>5.448877154226899e-50</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.005405960962284e-50</v>
+        <v>4.962305803756092e-50</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.484210604016459e-50</v>
+        <v>4.480712470932493e-50</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.965375287040471e-50</v>
+        <v>4.012513854706087e-50</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.489073804492904e-50</v>
+        <v>3.565720664304658e-50</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.090566569092126e-50</v>
+        <v>3.150242537972139e-50</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.772710821611119e-50</v>
+        <v>2.788512326417091e-50</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.525226131329873e-50</v>
+        <v>2.507908852248642e-50</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.335553284873812e-50</v>
+        <v>2.316670406296782e-50</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.186506984671408e-50</v>
+        <v>2.183504443080034e-50</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.060734738675807e-50</v>
+        <v>2.073152761190784e-50</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.948883608147737e-50</v>
+        <v>1.968535837803847e-50</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.848937220179214e-50</v>
+        <v>1.869246215023365e-50</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.759150732652223e-50</v>
+        <v>1.775493478276525e-50</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.677779303448866e-50</v>
+        <v>1.687487212990638e-50</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.603078090451125e-50</v>
+        <v>1.605437004592888e-50</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.533361000275043e-50</v>
+        <v>1.529523098823061e-50</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.467749010036512e-50</v>
+        <v>1.459522682587335e-50</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.405949507573767e-50</v>
+        <v>1.394920083591029e-50</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.347683081411185e-50</v>
+        <v>1.335193036988652e-50</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.292670320073153e-50</v>
+        <v>1.279819277934726e-50</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.240631812084129e-50</v>
+        <v>1.228276541583845e-50</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.191288145968497e-50</v>
+        <v>1.180042563090528e-50</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.144359910250666e-50</v>
+        <v>1.13459507760932e-50</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.099567693455026e-50</v>
+        <v>1.091411820294746e-50</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.056663117980429e-50</v>
+        <v>1.050034612121598e-50</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.015551548053981e-50</v>
+        <v>1.010322755247907e-50</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>9.761858696489383e-51</v>
+        <v>9.72233685569053e-51</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>9.385189826508937e-51</v>
+        <v>9.357248677097283e-51</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>9.025037869453886e-51</v>
+        <v>9.00753766294573e-51</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>8.680931824179819e-51</v>
+        <v>8.672778459482454e-51</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>8.352400689542178e-51</v>
+        <v>8.352545712953895e-51</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>8.038973464396852e-51</v>
+        <v>8.04641406960692e-51</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>7.740179147599272e-51</v>
+        <v>7.75395817568796e-51</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>7.455546738004909e-51</v>
+        <v>7.474752677443474e-51</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>7.184605234469603e-51</v>
+        <v>7.208372221120292e-51</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>6.926883635848816e-51</v>
+        <v>6.954391452964869e-51</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>6.681910940998131e-51</v>
+        <v>6.712385019223781e-51</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>6.449216148773041e-51</v>
+        <v>6.481927566143509e-51</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>6.228328258029339e-51</v>
+        <v>6.262593739970837e-51</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>6.018776267622513e-51</v>
+        <v>6.053958186952244e-51</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>5.820089176408059e-51</v>
+        <v>5.855595553334218e-51</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>5.631795983241747e-51</v>
+        <v>5.66708048536352e-51</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>5.453425686979073e-51</v>
+        <v>5.487987629286638e-51</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>5.284507286475628e-51</v>
+        <v>5.317891631350153e-51</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>5.124569780586926e-51</v>
+        <v>5.156367137800571e-51</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.973142168168706e-51</v>
+        <v>5.00298879488462e-51</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.829753448076481e-51</v>
+        <v>4.857331248848807e-51</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.69393261916578e-51</v>
+        <v>4.718969145939648e-51</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.565208680292312e-51</v>
+        <v>4.587477132403847e-51</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.443110630311605e-51</v>
+        <v>4.462429854487923e-51</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>4.327167468079247e-51</v>
+        <v>4.343401958438453e-51</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>4.216908192450781e-51</v>
+        <v>4.22996809050197e-51</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>4.111861802281892e-51</v>
+        <v>4.121702896925155e-51</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.01155729642812e-51</v>
+        <v>4.018181023954535e-51</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>3.915523673745054e-51</v>
+        <v>3.918977117836691e-51</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>3.82328993308824e-51</v>
+        <v>3.823665824818159e-51</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>3.734385073313352e-51</v>
+        <v>3.731821791145607e-51</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>3.648338093275936e-51</v>
+        <v>3.64301966306557e-51</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>3.564678015218817e-51</v>
+        <v>3.556834107131356e-51</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>3.483017424973278e-51</v>
+        <v>3.472912346720718e-51</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>3.403240158711531e-51</v>
+        <v>3.391137127209965e-51</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>3.325284994138623e-51</v>
+        <v>3.311438898761972e-51</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>3.249090708959713e-51</v>
+        <v>3.233748111539721e-51</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>3.174596080879848e-51</v>
+        <v>3.157995215706084e-51</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>3.101739887604114e-51</v>
+        <v>3.084110661423975e-51</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>3.030460906837565e-51</v>
+        <v>3.012024898856271e-51</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.960697916285351e-51</v>
+        <v>2.941668378165946e-51</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.892389693652524e-51</v>
+        <v>2.872971549515879e-51</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.825475016644171e-51</v>
+        <v>2.805864863068981e-51</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.759892662965345e-51</v>
+        <v>2.74027876898813e-51</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.695581410321193e-51</v>
+        <v>2.6761437174363e-51</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.632480036416769e-51</v>
+        <v>2.613390158576369e-51</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.570527318957133e-51</v>
+        <v>2.55194854257122e-51</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.509662035647423e-51</v>
+        <v>2.491749319583819e-51</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.449822964192698e-51</v>
+        <v>2.432722939777049e-51</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.390948882298042e-51</v>
+        <v>2.37479985331382e-51</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.332978567668517e-51</v>
+        <v>2.317910510357017e-51</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.275850798009258e-51</v>
+        <v>2.261985361069602e-51</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.219504351025325e-51</v>
+        <v>2.20695485561446e-51</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.163878004421778e-51</v>
+        <v>2.152749444154476e-51</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.108910535903753e-51</v>
+        <v>2.09929957685261e-51</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.054540723176311e-51</v>
+        <v>2.046535703871748e-51</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.000707343944534e-51</v>
+        <v>1.994388275374799e-51</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.947349175913487e-51</v>
+        <v>1.942787741524653e-51</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.894404996788302e-51</v>
+        <v>1.891664552484264e-51</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.841823238466871e-51</v>
+        <v>1.840956976991489e-51</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.789603913934712e-51</v>
+        <v>1.790645057406017e-51</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.737764192370668e-51</v>
+        <v>1.740722730256232e-51</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.686321254507218e-51</v>
+        <v>1.691183941427368e-51</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.635292281076864e-51</v>
+        <v>1.642022636804683e-51</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.584694452812085e-51</v>
+        <v>1.593232762273413e-51</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.534544950445429e-51</v>
+        <v>1.544808263718859e-51</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.484860954709374e-51</v>
+        <v>1.496743087026256e-51</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.4356596463364e-51</v>
+        <v>1.449031178080841e-51</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.386958206059054e-51</v>
+        <v>1.401666482767914e-51</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.338773814609816e-51</v>
+        <v>1.354642946972711e-51</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.291123652721187e-51</v>
+        <v>1.307954516580489e-51</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.244024901125649e-51</v>
+        <v>1.261595137476486e-51</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.197494740555744e-51</v>
+        <v>1.215558755545999e-51</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.151550351743955e-51</v>
+        <v>1.169839316674267e-51</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.106208915422763e-51</v>
+        <v>1.124430766746526e-51</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.061487612324711e-51</v>
+        <v>1.079327051648074e-51</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.017404876697112e-51</v>
+        <v>1.034528237803556e-51</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>9.739924583726205e-52</v>
+        <v>9.900994076729635e-52</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>9.312901365849799e-52</v>
+        <v>9.461448488892841e-52</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>8.893378012920499e-52</v>
+        <v>9.027693897181509e-52</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>8.481753424516329e-52</v>
+        <v>8.600778584251361e-52</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>8.0784265002155e-52</v>
+        <v>8.181750832758326e-52</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>7.683796139596053e-52</v>
+        <v>7.771658925358151e-52</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>7.298261242236557e-52</v>
+        <v>7.37155114470713e-52</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>6.922220707715049e-52</v>
+        <v>6.982475773461007e-52</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>6.556073435609581e-52</v>
+        <v>6.605481094275541e-52</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>6.200218325498696e-52</v>
+        <v>6.241615389807002e-52</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>5.855054276960443e-52</v>
+        <v>5.891926942711144e-52</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>5.520980189572887e-52</v>
+        <v>5.557464035643747e-52</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>5.198460818923304e-52</v>
+        <v>5.239273762058448e-52</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.888767633014957e-52</v>
+        <v>4.938388648104466e-52</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>4.59371278281059e-52</v>
+        <v>4.655831456485292e-52</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>4.315118384408712e-52</v>
+        <v>4.3926247699577e-52</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.054806553908198e-52</v>
+        <v>4.149791171278814e-52</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>3.814599407407548e-52</v>
+        <v>3.928353243205396e-52</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>3.596319061005388e-52</v>
+        <v>3.729333568494333e-52</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>3.401787630800262e-52</v>
+        <v>3.553754729902436e-52</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>3.232827232890974e-52</v>
+        <v>3.402639310186751e-52</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>3.091259983376058e-52</v>
+        <v>3.277009892104079e-52</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.978907998354095e-52</v>
+        <v>3.177889058411267e-52</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.897593393923815e-52</v>
+        <v>3.106299391865291e-52</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.849138286183787e-52</v>
+        <v>3.063263475222986e-52</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.835119463536533e-52</v>
+        <v>3.049612057165672e-52</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.853623545233947e-52</v>
+        <v>3.063446747418045e-52</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.900139912128926e-52</v>
+        <v>3.100838244253681e-52</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.970096106320088e-52</v>
+        <v>3.157808891111175e-52</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>3.058919669906092e-52</v>
+        <v>3.230381031429158e-52</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>3.162038144985474e-52</v>
+        <v>3.31457700864616e-52</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.274879073656884e-52</v>
+        <v>3.406419166200804e-52</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.392869998018942e-52</v>
+        <v>3.501929847531686e-52</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.511438460170313e-52</v>
+        <v>3.597131396077443e-52</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.626012002209508e-52</v>
+        <v>3.688046155276584e-52</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.732018166235195e-52</v>
+        <v>3.770696468567746e-52</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>3.824884494346029e-52</v>
+        <v>3.841104679389552e-52</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.900038528640541e-52</v>
+        <v>3.895293131180534e-52</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.952907811217393e-52</v>
+        <v>3.929284167379322e-52</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.979390818900845e-52</v>
+        <v>3.93978618423447e-52</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.981975970896618e-52</v>
+        <v>3.933107737511513e-52</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>3.968000786070772e-52</v>
+        <v>3.922621500923979e-52</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.944933637876438e-52</v>
+        <v>3.921863591114427e-52</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>3.930113247414635e-52</v>
+        <v>3.944159151722002e-52</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>3.966432649541378e-52</v>
+        <v>4.002004109368725e-52</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.062023662655048e-52</v>
+        <v>4.089089097086687e-52</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.16136979781734e-52</v>
+        <v>4.16858865136633e-52</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.210861869656608e-52</v>
+        <v>4.205739997093198e-52</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.201510144428878e-52</v>
+        <v>4.193768849312726e-52</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.140226526098342e-52</v>
+        <v>4.135875560012009e-52</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>4.033942419013029e-52</v>
+        <v>4.035272713204317e-52</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.889854149727971e-52</v>
+        <v>3.895551770015098e-52</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>3.720381975437306e-52</v>
+        <v>3.72777516872051e-52</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.542728433716113e-52</v>
+        <v>3.549844700934678e-52</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>3.374272438185281e-52</v>
+        <v>3.379914401553517e-52</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>3.232392902465924e-52</v>
+        <v>3.236138305473177e-52</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.13446874017892e-52</v>
+        <v>3.136670447589572e-52</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.097878864945229e-52</v>
+        <v>3.099664862798692e-52</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.140002190385845e-52</v>
+        <v>3.143275585996568e-52</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.278217630121696e-52</v>
+        <v>3.285656652079159e-52</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.518413010243289e-52</v>
+        <v>3.532833671516872e-52</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.733046821156897e-52</v>
+        <v>3.750002449967154e-52</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.751964860290205e-52</v>
+        <v>3.757328099402476e-52</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.618913509999814e-52</v>
+        <v>3.600469351366866e-52</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.442947186736621e-52</v>
+        <v>3.394037138057722e-52</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.282745798579824e-52</v>
+        <v>3.203410015835719e-52</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.13278901090383e-52</v>
+        <v>3.031219948382481e-52</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.983390695193717e-52</v>
+        <v>2.876027429220871e-52</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.824865870680023e-52</v>
+        <v>2.736393160594775e-52</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.653589205248878e-52</v>
+        <v>2.611979810633601e-52</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.486139888891412e-52</v>
+        <v>2.506124302420228e-52</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.343302995717653e-52</v>
+        <v>2.422928412097601e-52</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.245863599837598e-52</v>
+        <v>2.366493915808654e-52</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.212161402240298e-52</v>
+        <v>2.339862302471457e-52</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.227650560903543e-52</v>
+        <v>2.331816246739962e-52</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.25424009174204e-52</v>
+        <v>2.3209295054046e-52</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.253327335513956e-52</v>
+        <v>2.285553978465501e-52</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.194838445105877e-52</v>
+        <v>2.209044353348503e-52</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.085316557021535e-52</v>
+        <v>2.096233922289824e-52</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.941129679950707e-52</v>
+        <v>1.957719001296439e-52</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.778645942726929e-52</v>
+        <v>1.804095976848581e-52</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.614233455230359e-52</v>
+        <v>1.645961230032537e-52</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.462201364198937e-52</v>
+        <v>1.493325178063922e-52</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.329134969082979e-52</v>
+        <v>1.354000095141767e-52</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.219808744317532e-52</v>
+        <v>1.235282909651703e-52</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.13899716433772e-52</v>
+        <v>1.144470549979435e-52</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.091043259230227e-52</v>
+        <v>1.088326989407173e-52</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.073516593573578e-52</v>
+        <v>1.065249066442994e-52</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.078605042478799e-52</v>
+        <v>1.066985719634045e-52</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.098348016434674e-52</v>
+        <v>1.085102491966955e-52</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.124784925929958e-52</v>
+        <v>1.111164926428327e-52</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.149955181453432e-52</v>
+        <v>1.136738566004785e-52</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.165898193493873e-52</v>
+        <v>1.153388953682951e-52</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.164653372540049e-52</v>
+        <v>1.152681632449439e-52</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.138293299375603e-52</v>
+        <v>1.126217195555373e-52</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.083211149960842e-52</v>
+        <v>1.070161706783786e-52</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.004361741079266e-52</v>
+        <v>9.897281128782347e-53</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>9.077077739533508e-53</v>
+        <v>8.911943681836721e-53</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>7.992119498054663e-53</v>
+        <v>7.808384270449421e-53</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>6.848369698580144e-53</v>
+        <v>6.649382438069216e-53</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>5.70545535333346e-53</v>
+        <v>5.497717728144363e-53</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>4.623003474539674e-53</v>
+        <v>4.416169684124679e-53</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>3.660641074422283e-53</v>
+        <v>3.467517849458405e-53</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.877869501167445e-53</v>
+        <v>2.714405054938341e-53</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.308204731319612e-53</v>
+        <v>2.191204077051281e-53</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.927504549888711e-53</v>
+        <v>1.869560084292466e-53</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.70387435089147e-53</v>
+        <v>1.712684249392086e-53</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.605419528344589e-53</v>
+        <v>1.683787745080343e-53</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.60024547626487e-53</v>
+        <v>1.746081744087439e-53</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.656457588668966e-53</v>
+        <v>1.862777419143526e-53</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.742161259573644e-53</v>
+        <v>1.997085942978853e-53</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.825461882995537e-53</v>
+        <v>2.112218488323477e-53</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.876025394580462e-53</v>
+        <v>2.173274336120729e-53</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.887252144446232e-53</v>
+        <v>2.174069170684915e-53</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.871011737246969e-53</v>
+        <v>2.130764732680358e-53</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.839660476953622e-53</v>
+        <v>2.060111623049341e-53</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.80555466753712e-53</v>
+        <v>1.978860442734095e-53</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.781050612968386e-53</v>
+        <v>1.903761792676826e-53</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.778504617218376e-53</v>
+        <v>1.851566273819849e-53</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.810272984258008e-53</v>
+        <v>1.839024487105366e-53</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.888712018058211e-53</v>
+        <v>1.882887033475616e-53</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.022252724095412e-53</v>
+        <v>1.994896469056287e-53</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.203137923927079e-53</v>
+        <v>2.166141850455133e-53</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.419437893170922e-53</v>
+        <v>2.38238874178758e-53</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.659222903173143e-53</v>
+        <v>2.62940270171933e-53</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.910563225280058e-53</v>
+        <v>2.892949288916207e-53</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.161529130837637e-53</v>
+        <v>3.158794062043669e-53</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.400190891192197e-53</v>
+        <v>3.412702579767534e-53</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.614618777690026e-53</v>
+        <v>3.640440400753599e-53</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.792965277140122e-53</v>
+        <v>3.827860615206348e-53</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.938802575383223e-53</v>
+        <v>3.977233054633226e-53</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>4.089167942522489e-53</v>
+        <v>4.126456496987844e-53</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>4.285484754851148e-53</v>
+        <v>4.318099433329216e-53</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>4.569176388662608e-53</v>
+        <v>4.594730354716535e-53</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>4.981666220250213e-53</v>
+        <v>4.99891775220893e-53</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>5.564377625907615e-53</v>
+        <v>5.573230116865832e-53</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>6.358733981927651e-53</v>
+        <v>6.360235939745874e-53</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>7.406158664603887e-53</v>
+        <v>7.402503711908399e-53</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>8.747120545297316e-53</v>
+        <v>8.741635050435464e-53</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.036861849608796e-52</v>
+        <v>1.036506867695752e-52</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.217688719994874e-52</v>
+        <v>1.217843253342176e-52</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.407145525303031e-52</v>
+        <v>1.408056157347672e-52</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.595185125148347e-52</v>
+        <v>1.59702907507711e-52</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.771760379145649e-52</v>
+        <v>1.774645501895102e-52</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.92682414691002e-52</v>
+        <v>1.93078893316652e-52</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.050329288056506e-52</v>
+        <v>2.055342864256198e-52</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.13222866219999e-52</v>
+        <v>2.138190790528807e-52</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.164657436559229e-52</v>
+        <v>2.171408916215942e-52</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.151172100953118e-52</v>
+        <v>2.158549204187835e-52</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.099053020023441e-52</v>
+        <v>2.106905240781994e-52</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.015582607784494e-52</v>
+        <v>2.023772671476108e-52</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.908043278250509e-52</v>
+        <v>1.916447141747803e-52</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.783717445435733e-52</v>
+        <v>1.79222429707472e-52</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.649887523354351e-52</v>
+        <v>1.658399782934436e-52</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.513835926020733e-52</v>
+        <v>1.522269244804716e-52</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.382844955196265e-52</v>
+        <v>1.391128215804437e-52</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.262692345945531e-52</v>
+        <v>1.270766242902021e-52</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.153879431866681e-52</v>
+        <v>1.161691493682995e-52</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.055751539648637e-52</v>
+        <v>1.063255038211837e-52</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>9.67653995980378e-53</v>
+        <v>9.748079465530782e-53</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>8.889321275508515e-53</v>
+        <v>8.9570128877122e-53</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>8.189312610491074e-53</v>
+        <v>8.252861349308663e-53</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>7.569967231640874e-53</v>
+        <v>7.62913555096513e-53</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>7.024738405847714e-53</v>
+        <v>7.079346193326937e-53</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>6.547079400001195e-53</v>
+        <v>6.597003977039217e-53</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>6.130443480991534e-53</v>
+        <v>6.175619602747733e-53</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.768283915708298e-53</v>
+        <v>5.808703771097589e-53</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>5.454053971041154e-53</v>
+        <v>5.489767182733989e-53</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>5.181206913880181e-53</v>
+        <v>5.21232053830255e-53</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>4.943196011115019e-53</v>
+        <v>4.969874538448453e-53</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>4.733474529635379e-53</v>
+        <v>4.755939883816944e-53</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>4.545495736331243e-53</v>
+        <v>4.564027275053547e-53</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>4.372712898092305e-53</v>
+        <v>4.387647412803494e-53</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>4.209180203810669e-53</v>
+        <v>4.220904451750722e-53</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>4.052966142573881e-53</v>
+        <v>4.061866959022055e-53</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>3.90378397969995e-53</v>
+        <v>3.91022783750307e-53</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>3.761351949590035e-53</v>
+        <v>3.765684897409164e-53</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>3.625388286645371e-53</v>
+        <v>3.627935948955813e-53</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.495611225267135e-53</v>
+        <v>3.496678802358428e-53</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.371738999856676e-53</v>
+        <v>3.3716112678326e-53</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.253489844815167e-53</v>
+        <v>3.252431155593739e-53</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.140581994543795e-53</v>
+        <v>3.138836275857269e-53</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.032733683443892e-53</v>
+        <v>3.030524438838762e-53</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.929663145916641e-53</v>
+        <v>2.927193454753638e-53</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.831088616363231e-53</v>
+        <v>2.828541133817327e-53</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.736728329184985e-53</v>
+        <v>2.734265286245388e-53</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.646300518783091e-53</v>
+        <v>2.644063722253246e-53</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.559523419558744e-53</v>
+        <v>2.557634252056337e-53</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.476115265913293e-53</v>
+        <v>2.474674685870247e-53</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.395794292247819e-53</v>
+        <v>2.394882833910296e-53</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.318278732963634e-53</v>
+        <v>2.317956506392035e-53</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.243286822462038e-53</v>
+        <v>2.243593513530999e-53</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.170536795144127e-53</v>
+        <v>2.171491665542526e-53</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.099746885411267e-53</v>
+        <v>2.101348772642219e-53</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.030635327664565e-53</v>
+        <v>2.032862645045421e-53</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.962920356305316e-53</v>
+        <v>1.96573109296767e-53</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.896320205734814e-53</v>
+        <v>1.899651926624495e-53</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.830553110354173e-53</v>
+        <v>1.834322956231249e-53</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.765337304564686e-53</v>
+        <v>1.769441992003463e-53</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.700411132473559e-53</v>
+        <v>1.704728489164777e-53</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.635747403882637e-53</v>
+        <v>1.6401542692282e-53</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.571470525242064e-53</v>
+        <v>1.575854324202397e-53</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.507707444410661e-53</v>
+        <v>1.511966381531924e-53</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.444585109247076e-53</v>
+        <v>1.448628168661167e-53</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.382230467610131e-53</v>
+        <v>1.385977413034684e-53</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.320770467358644e-53</v>
+        <v>1.324151842097031e-53</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.260332056351267e-53</v>
+        <v>1.263289183292597e-53</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.20104218244682e-53</v>
+        <v>1.20352716406594e-53</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.143027793504117e-53</v>
+        <v>1.145003511861611e-53</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.086415837381817e-53</v>
+        <v>1.087855954124006e-53</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.031333261938787e-53</v>
+        <v>1.032222218297729e-53</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>9.779070150336884e-54</v>
+        <v>9.782400318271781e-54</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>9.262640445253365e-54</v>
+        <v>9.260471221569069e-54</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>8.765312982725387e-54</v>
+        <v>8.757812167314597e-54</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>8.288357241339679e-54</v>
+        <v>8.27580042995246e-54</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>7.833042699684341e-54</v>
+        <v>7.815813283928135e-54</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.400608913717002e-54</v>
+        <v>7.379196035835516e-54</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>6.991430882872781e-54</v>
+        <v>6.966370343038303e-54</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.604908003379298e-54</v>
+        <v>6.576715576909358e-54</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>6.240387437784409e-54</v>
+        <v>6.209555304953487e-54</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>5.89721634863499e-54</v>
+        <v>5.864213094674511e-54</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.574741898479189e-54</v>
+        <v>5.540012513577536e-54</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>5.272311249863964e-54</v>
+        <v>5.236277129166463e-54</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>4.989271565337147e-54</v>
+        <v>4.952330508946075e-54</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>4.724970007446499e-54</v>
+        <v>4.687496220421089e-54</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>4.47875373873908e-54</v>
+        <v>4.441097831095511e-54</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.249969921762667e-54</v>
+        <v>4.212458908474066e-54</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.037965719064977e-54</v>
+        <v>4.000903020061426e-54</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.842088293193165e-54</v>
+        <v>3.805753733361693e-54</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.661684806694959e-54</v>
+        <v>3.626334615879548e-54</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.496102422118036e-54</v>
+        <v>3.461969235119614e-54</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.344688302009631e-54</v>
+        <v>3.311981158586081e-54</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.206789608917433e-54</v>
+        <v>3.175693953783586e-54</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.081753505389083e-54</v>
+        <v>3.052431188216719e-54</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.968927153971887e-54</v>
+        <v>2.941516429389739e-54</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.867657717213586e-54</v>
+        <v>2.842273244807334e-54</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.777292357661529e-54</v>
+        <v>2.754025201973805e-54</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.697178237863345e-54</v>
+        <v>2.676095868393734e-54</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.626662520366629e-54</v>
+        <v>2.60780881157166e-54</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.565092367718786e-54</v>
+        <v>2.548487599011943e-54</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.511814942467417e-54</v>
+        <v>2.497455798219133e-54</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.466177407160091e-54</v>
+        <v>2.454036976697748e-54</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.427526924344264e-54</v>
+        <v>2.417554701952196e-54</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.395210656567509e-54</v>
+        <v>2.387332541487e-54</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.368575766377384e-54</v>
+        <v>2.362694062806666e-54</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.346969416321373e-54</v>
+        <v>2.342962833415631e-54</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.329738768947036e-54</v>
+        <v>2.327462420818404e-54</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.316230986801916e-54</v>
+        <v>2.315516392519477e-54</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.305793232433524e-54</v>
+        <v>2.306448316023314e-54</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.297772668389412e-54</v>
+        <v>2.299581758834415e-54</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.291516457217098e-54</v>
+        <v>2.294240288457251e-54</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.286406539354983e-54</v>
+        <v>2.289784046887226e-54</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.282356186619841e-54</v>
+        <v>2.286131955683193e-54</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.279693365052786e-54</v>
+        <v>2.283639053424513e-54</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.278757041042251e-54</v>
+        <v>2.282671947307651e-54</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.279886180976666e-54</v>
+        <v>2.283597244529071e-54</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.283419751244462e-54</v>
+        <v>2.286781552285236e-54</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.289696718234073e-54</v>
+        <v>2.292591477772612e-54</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.299056048333918e-54</v>
+        <v>2.301393628187651e-54</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.311836707932445e-54</v>
+        <v>2.313554610726835e-54</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.328377663418062e-54</v>
+        <v>2.329441032586603e-54</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.349017881179228e-54</v>
+        <v>2.349419500963448e-54</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.374096327604361e-54</v>
+        <v>2.37385662305382e-54</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.403951969081865e-54</v>
+        <v>2.403119006054156e-54</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.438923772000222e-54</v>
+        <v>2.437573257160971e-54</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.47935070274784e-54</v>
+        <v>2.477585983570705e-54</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.525571727713105e-54</v>
+        <v>2.523523792479777e-54</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.57792581328453e-54</v>
+        <v>2.575753291084734e-54</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.636751925850508e-54</v>
+        <v>2.634641086582e-54</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.702389031799408e-54</v>
+        <v>2.700553786167977e-54</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.775176097519778e-54</v>
+        <v>2.773857997039247e-54</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.855452089399995e-54</v>
+        <v>2.854920326392218e-54</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.943555973828404e-54</v>
+        <v>2.944107381423269e-54</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>3.039544959104341e-54</v>
+        <v>3.041498275509893e-54</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>3.140446201014742e-54</v>
+        <v>3.14408038694841e-54</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>3.241442525653998e-54</v>
+        <v>3.246959219451e-54</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.337690625759672e-54</v>
+        <v>3.345213611378079e-54</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.424347194068983e-54</v>
+        <v>3.433922401089711e-54</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.496568923319466e-54</v>
+        <v>3.508164426946289e-54</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.54951250624842e-54</v>
+        <v>3.563018527307961e-54</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.578334635593209e-54</v>
+        <v>3.593563540534938e-54</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.57819200409127e-54</v>
+        <v>3.594878304987512e-54</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.544241304479942e-54</v>
+        <v>3.562041659025873e-54</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.471639229496689e-54</v>
+        <v>3.490132441010334e-54</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.355542471878765e-54</v>
+        <v>3.374229489301002e-54</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.191107724363595e-54</v>
+        <v>3.209411642258151e-54</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.975257674423958e-54</v>
+        <v>2.992542828034272e-54</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.717054084587914e-54</v>
+        <v>2.732757305227519e-54</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.430661787246867e-54</v>
+        <v>2.44434757993229e-54</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.130263274270483e-54</v>
+        <v>2.141624008666736e-54</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.830041037529202e-54</v>
+        <v>1.838896947949789e-54</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.544177568893458e-54</v>
+        <v>1.550476754300382e-54</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.286855360232917e-54</v>
+        <v>1.290673784236665e-54</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.072256903418034e-54</v>
+        <v>1.073798394277588e-54</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>9.145646903191125e-55</v>
+        <v>9.141609409419486e-55</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>8.247581590890625e-55</v>
+        <v>8.228441322948846e-55</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>7.991892806824978e-55</v>
+        <v>7.961908917931355e-55</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>8.300368363256451e-55</v>
+        <v>8.263389092126877e-55</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>9.094792923337795e-55</v>
+        <v>9.054255570005207e-55</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.029695115021987e-54</v>
+        <v>1.025588207603427e-54</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.182862770705706e-54</v>
+        <v>1.17896423346855e-54</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.361160725700058e-54</v>
+        <v>1.357691007042717e-54</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.556767446320075e-54</v>
+        <v>1.553905900772666e-54</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.761861398881332e-54</v>
+        <v>1.759746287105678e-54</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.968621049698872e-54</v>
+        <v>1.967349538488501e-54</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.169224865087734e-54</v>
+        <v>2.168853027367878e-54</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.3558513113635e-54</v>
+        <v>2.3563941261911e-54</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.520678854841198e-54</v>
+        <v>2.522110207404899e-54</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.655885961835939e-54</v>
+        <v>2.65813864345609e-54</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.753651098663184e-54</v>
+        <v>2.756616806791843e-54</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.806152731638014e-54</v>
+        <v>2.809682069858941e-54</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.805569327075666e-54</v>
+        <v>2.809471805104329e-54</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.745739886881615e-54</v>
+        <v>2.749791171076568e-54</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.631635764776704e-54</v>
+        <v>2.635626286097157e-54</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.472804250466493e-54</v>
+        <v>2.476559184698046e-54</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.278806701009746e-54</v>
+        <v>2.282186030187649e-54</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.059204473465855e-54</v>
+        <v>2.062102985875007e-54</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.823558924893476e-54</v>
+        <v>1.825906215068422e-54</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.581431412351857e-54</v>
+        <v>1.583191881076793e-54</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.342383292900268e-54</v>
+        <v>1.343556147209038e-54</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.115975923597331e-54</v>
+        <v>1.116595176773427e-54</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>9.117706615023237e-55</v>
+        <v>9.119051330788868e-55</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>7.393221468528124e-55</v>
+        <v>7.390754381670609e-55</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>6.044646173908531e-55</v>
+        <v>6.039615713453263e-55</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>5.031402268442768e-55</v>
+        <v>5.024909261087749e-55</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.296652340697654e-55</v>
+        <v>4.289590837095665e-55</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.783558979238172e-55</v>
+        <v>3.776616253996773e-55</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.43528477263162e-55</v>
+        <v>3.428941324313155e-55</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>3.194992309443676e-55</v>
+        <v>3.189521860565268e-55</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>3.006031420614621e-55</v>
+        <v>3.001501611542728e-55</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.830353853207557e-55</v>
+        <v>2.826695178307665e-55</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.664040959512954e-55</v>
+        <v>2.6611732467853e-55</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.506830186459603e-55</v>
+        <v>2.504676146524431e-55</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.358458980976267e-55</v>
+        <v>2.356944207073822e-55</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.218664789991309e-55</v>
+        <v>2.217717757981845e-55</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.087185060433498e-55</v>
+        <v>2.086737128797271e-55</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.963757239231575e-55</v>
+        <v>1.963742649068845e-55</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.848118773313947e-55</v>
+        <v>1.84847464834498e-55</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.74000710960936e-55</v>
+        <v>1.740673456174428e-55</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.639159695046533e-55</v>
+        <v>1.640079402105912e-55</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.545313976553917e-55</v>
+        <v>1.546432815687887e-55</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.458207401060236e-55</v>
+        <v>1.459474026469083e-55</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.377577415494191e-55</v>
+        <v>1.378943363998205e-55</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.30316146678427e-55</v>
+        <v>1.304581157823745e-55</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.234697001859237e-55</v>
+        <v>1.236127737494473e-55</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.1719214676476e-55</v>
+        <v>1.173323432558902e-55</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.114572311078055e-55</v>
+        <v>1.115908572565732e-55</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.062386979079279e-55</v>
+        <v>1.063623487063645e-55</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.015102918579809e-55</v>
+        <v>1.016208505601183e-55</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>9.724575765083247e-56</v>
+        <v>9.734039577270303e-56</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>9.341883997934902e-56</v>
+        <v>9.349501729898559e-56</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>9.000328353638689e-56</v>
+        <v>9.005874809382276e-56</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>8.697283301481277e-56</v>
+        <v>8.700562111208176e-56</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>8.430123310749203e-56</v>
+        <v>8.430966930862844e-56</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>8.196222850728304e-56</v>
+        <v>8.194492563832162e-56</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.992956390705315e-56</v>
+        <v>7.988542305602913e-56</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>7.817698399966193e-56</v>
+        <v>7.8105194516611e-56</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>7.667823347797436e-56</v>
+        <v>7.657827297493273e-56</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>7.540705703485468e-56</v>
+        <v>7.527869138585905e-56</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>7.433719936316375e-56</v>
+        <v>7.418048270425124e-56</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>7.344240515576592e-56</v>
+        <v>7.325767988497416e-56</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>7.269641910552492e-56</v>
+        <v>7.248431588289206e-56</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>7.207298590530257e-56</v>
+        <v>7.183442365286715e-56</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>7.154585024796274e-56</v>
+        <v>7.128203614976383e-56</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>7.10887568263689e-56</v>
+        <v>7.08011863284461e-56</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>7.067545033338341e-56</v>
+        <v>7.03659071437767e-56</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>7.02796754618702e-56</v>
+        <v>6.99502315506201e-56</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.987517690469166e-56</v>
+        <v>6.952819250383914e-56</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.943569935471133e-56</v>
+        <v>6.907382295829785e-56</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>6.893499408274315e-56</v>
+        <v>6.856116235084206e-56</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>6.835369352923784e-56</v>
+        <v>6.797103089553345e-56</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>6.769233909888758e-56</v>
+        <v>6.730386731000909e-56</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>6.69550518694162e-56</v>
+        <v>6.656363775950802e-56</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>6.614595291854563e-56</v>
+        <v>6.575430840926726e-56</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>6.526916332399971e-56</v>
+        <v>6.487984542452583e-56</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>6.432880416350247e-56</v>
+        <v>6.394421497052292e-56</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>6.332899651477545e-56</v>
+        <v>6.295138321249522e-56</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>6.22738614555427e-56</v>
+        <v>6.190531631568191e-56</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>6.116752006352841e-56</v>
+        <v>6.080998044532236e-56</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>6.001409341645379e-56</v>
+        <v>5.966934176665293e-56</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>5.881770259204303e-56</v>
+        <v>5.848736644491293e-56</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>5.758246866802047e-56</v>
+        <v>5.726802064534188e-56</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>5.631251272210706e-56</v>
+        <v>5.601527053317589e-56</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>5.501195583202833e-56</v>
+        <v>5.473308227365561e-56</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>5.368491907550513e-56</v>
+        <v>5.342542203201706e-56</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>5.233552353026178e-56</v>
+        <v>5.209625597349974e-56</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>5.096789027402278e-56</v>
+        <v>5.074955026334325e-56</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>4.958614038450882e-56</v>
+        <v>4.938927106678349e-56</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>4.819439493944438e-56</v>
+        <v>4.801938454906004e-56</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>4.679677501655387e-56</v>
+        <v>4.664385687541247e-56</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>4.539740169355802e-56</v>
+        <v>4.526665421107672e-56</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>4.400039604818128e-56</v>
+        <v>4.389174272129232e-56</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>4.26098791581481e-56</v>
+        <v>4.25230885712989e-56</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>4.122997210117918e-56</v>
+        <v>4.116465792633233e-56</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.98647959550002e-56</v>
+        <v>3.98204169516334e-56</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.851847179733192e-56</v>
+        <v>3.849433181243807e-56</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.719512070589875e-56</v>
+        <v>3.719036867398588e-56</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.589886375842509e-56</v>
+        <v>3.591249370151636e-56</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.463382203263176e-56</v>
+        <v>3.466467306026554e-56</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.34041166062432e-56</v>
+        <v>3.345087291547295e-56</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.221386855698363e-56</v>
+        <v>3.2275059432378e-56</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>3.106719896257412e-56</v>
+        <v>3.11411987762169e-56</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.996822890073897e-56</v>
+        <v>3.005325711222912e-56</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.89210794492023e-56</v>
+        <v>2.90152006056539e-56</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.792987168568543e-56</v>
+        <v>2.803099542172772e-56</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.699872668791334e-56</v>
+        <v>2.710460772569074e-56</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.613176553360756e-56</v>
+        <v>2.624000368277962e-56</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>2.533310923786761e-56</v>
+        <v>2.544114939844268e-56</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>2.460508144296361e-56</v>
+        <v>2.471029493305792e-56</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.394350800297999e-56</v>
+        <v>2.404348657158106e-56</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.334274690153341e-56</v>
+        <v>2.343536914689349e-56</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.279715612224283e-56</v>
+        <v>2.288058749187887e-56</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.230109364872515e-56</v>
+        <v>2.237378643941877e-56</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.18489174645987e-56</v>
+        <v>2.190961082239627e-56</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.143498555348175e-56</v>
+        <v>2.148270547369432e-56</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.105365589899137e-56</v>
+        <v>2.108771522619471e-56</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.069928648474584e-56</v>
+        <v>2.071928491278042e-56</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.036623529436331e-56</v>
+        <v>2.037205936633431e-56</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.004886031146102e-56</v>
+        <v>2.004068341973832e-56</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.974151951965715e-56</v>
+        <v>1.971980190587533e-56</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.943857090256985e-56</v>
+        <v>1.940405965762822e-56</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.913437244381641e-56</v>
+        <v>1.908810150787896e-56</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.882328212701527e-56</v>
+        <v>1.876657228951071e-56</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.849965793578371e-56</v>
+        <v>1.843411683540545e-56</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.815785785373988e-56</v>
+        <v>1.808537997844603e-56</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.779251931935624e-56</v>
+        <v>1.771527060228153e-56</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.740318605369473e-56</v>
+        <v>1.732333342943423e-56</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.699358747533274e-56</v>
+        <v>1.691306815625849e-56</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.656758719984767e-56</v>
+        <v>1.648810127891242e-56</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.612904884281577e-56</v>
+        <v>1.605205929355299e-56</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.568183601981443e-56</v>
+        <v>1.560856869633826e-56</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.522981234642107e-56</v>
+        <v>1.516125598342636e-56</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.47768414382119e-56</v>
+        <v>1.471374765097421e-56</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.432678691076474e-56</v>
+        <v>1.426967019514031e-56</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.388351237965579e-56</v>
+        <v>1.383265011208157e-56</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.345088146046248e-56</v>
+        <v>1.340631389795612e-56</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.30327577687622e-56</v>
+        <v>1.299428804892202e-56</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.263300492013119e-56</v>
+        <v>1.260019906113626e-56</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.225548653014687e-56</v>
+        <v>1.222767343075692e-56</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.190405224051217e-56</v>
+        <v>1.188032426216145e-56</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.158015292090537e-56</v>
+        <v>1.155946581062278e-56</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.128014088974411e-56</v>
+        <v>1.126152616470899e-56</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.099971623933299e-56</v>
+        <v>1.098230835591708e-56</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.073457906197585e-56</v>
+        <v>1.071761541574329e-56</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.048042944997751e-56</v>
+        <v>1.046325037568487e-56</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.023296749564187e-56</v>
+        <v>1.02150162672381e-56</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>9.987893291273506e-57</v>
+        <v>9.968716121899972e-57</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>9.74090692917676e-57</v>
+        <v>9.720152971167235e-57</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>9.487865298165419e-57</v>
+        <v>9.465292421451009e-57</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>9.229561766287258e-57</v>
+        <v>9.2052184819359e-57</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>8.972602432745363e-57</v>
+        <v>8.947042108919275e-57</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>8.723926911703749e-57</v>
+        <v>8.698220064650529e-57</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>8.490474817327131e-57</v>
+        <v>8.466209111379767e-57</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>8.279185763780175e-57</v>
+        <v>8.258466011357032e-57</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>8.096999365226986e-57</v>
+        <v>8.082447526831823e-57</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>7.950039055168818e-57</v>
+        <v>7.944722841681796e-57</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>7.830635448246152e-57</v>
+        <v>7.836861755133828e-57</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.719630258343061e-57</v>
+        <v>7.737940141612417e-57</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.597514632672844e-57</v>
+        <v>7.626652642061464e-57</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.444779718448845e-57</v>
+        <v>7.481693897424927e-57</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>7.247617487642492e-57</v>
+        <v>7.287913457365302e-57</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>7.017727771278735e-57</v>
+        <v>7.057700490940603e-57</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>6.773941820944265e-57</v>
+        <v>6.811143622016473e-57</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>6.535091220649226e-57</v>
+        <v>6.568331833360251e-57</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>6.316854542631431e-57</v>
+        <v>6.346016617187941e-57</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>6.120854060607946e-57</v>
+        <v>6.146070750732126e-57</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.944796499595889e-57</v>
+        <v>5.966222368663572e-57</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.786388418805096e-57</v>
+        <v>5.804199430144596e-57</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.643336377444983e-57</v>
+        <v>5.657729894337079e-57</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.513346934725401e-57</v>
+        <v>5.524541720403352e-57</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.394126649856153e-57</v>
+        <v>5.402362867505692e-57</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>5.283382082046727e-57</v>
+        <v>5.288921294806062e-57</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.178819790507025e-57</v>
+        <v>5.181944961466838e-57</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>5.078146334446564e-57</v>
+        <v>5.079161826650008e-57</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.979068273075141e-57</v>
+        <v>4.978299849517848e-57</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.879292165602452e-57</v>
+        <v>4.877086989232528e-57</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.776524571238298e-57</v>
+        <v>4.773251204956322e-57</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.668546680704722e-57</v>
+        <v>4.664593898878365e-57</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.554941893610896e-57</v>
+        <v>4.550689982416472e-57</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.437144746495844e-57</v>
+        <v>4.432936025094835e-57</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.31667419522132e-57</v>
+        <v>4.312811671406932e-57</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.195049195649087e-57</v>
+        <v>4.191796565846251e-57</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>4.073788703640578e-57</v>
+        <v>4.071370352905951e-57</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.954411675057555e-57</v>
+        <v>3.953012677079521e-57</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.838437065761777e-57</v>
+        <v>3.83820318286044e-57</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.727383831614684e-57</v>
+        <v>3.728421514741877e-57</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.622770928478038e-57</v>
+        <v>3.625147317217318e-57</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.526117312213574e-57</v>
+        <v>3.529860234780224e-57</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.438941938682772e-57</v>
+        <v>3.444039911923799e-57</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.362763763747439e-57</v>
+        <v>3.369165993141574e-57</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.298751942465491e-57</v>
+        <v>3.306366077622217e-57</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.246094016853591e-57</v>
+        <v>3.254773436469709e-57</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.20328053948349e-57</v>
+        <v>3.212819879102138e-57</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.168801292616731e-57</v>
+        <v>3.178936439684679e-57</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.141146058514973e-57</v>
+        <v>3.151554152382624e-57</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.118804619439852e-57</v>
+        <v>3.129104051361243e-57</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.100266757652945e-57</v>
+        <v>3.110017170785745e-57</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.084022255415893e-57</v>
+        <v>3.092724544821402e-57</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.068560945504248e-57</v>
+        <v>3.075657259602843e-57</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.061491438923719e-57</v>
+        <v>3.066627916018691e-57</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>3.104979454589953e-57</v>
+        <v>3.109001906080433e-57</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>3.24890752202115e-57</v>
+        <v>3.2540821981173e-57</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.512915679919036e-57</v>
+        <v>3.521956021275381e-57</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.868477776985026e-57</v>
+        <v>3.882994355016827e-57</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>4.282769765619808e-57</v>
+        <v>4.303131969803208e-57</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>4.722967598223119e-57</v>
+        <v>4.748303636095124e-57</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>5.156247227194606e-57</v>
+        <v>5.184444124353089e-57</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>5.549865506003924e-57</v>
+        <v>5.577586354089053e-57</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>5.876237512845057e-57</v>
+        <v>5.900021194988187e-57</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>6.115953551039167e-57</v>
+        <v>6.133957687081595e-57</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>6.250328633175829e-57</v>
+        <v>6.262484086551908e-57</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>6.26067777184396e-57</v>
+        <v>6.268688649581121e-57</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>6.132384248720977e-57</v>
+        <v>6.139536598591855e-57</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>5.890328848864795e-57</v>
+        <v>5.899633362164267e-57</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>5.581603064773795e-57</v>
+        <v>5.594750658780681e-57</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>5.25354590664084e-57</v>
+        <v>5.270896085555007e-57</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>4.95349638465788e-57</v>
+        <v>4.974077239600249e-57</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>4.724760888495533e-57</v>
+        <v>4.746374585330281e-57</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>4.565282856160696e-57</v>
+        <v>4.585692268096356e-57</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>4.444443558978009e-57</v>
+        <v>4.462119413675447e-57</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>4.33117889541155e-57</v>
+        <v>4.345311425327171e-57</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>4.194424763925112e-57</v>
+        <v>4.204923706310855e-57</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.003556322656599e-57</v>
+        <v>4.011043206831531e-57</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.748094474668706e-57</v>
+        <v>3.753548893533052e-57</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.445658889929319e-57</v>
+        <v>3.449925128569552e-57</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.115954511021109e-57</v>
+        <v>3.119704932510408e-57</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.778686280526839e-57</v>
+        <v>2.78242132592509e-57</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.453559141028354e-57</v>
+        <v>2.457607329382146e-57</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.160278035108667e-57</v>
+        <v>2.164795963451295e-57</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.918229741769365e-57</v>
+        <v>1.923204322859627e-57</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.735692943593649e-57</v>
+        <v>1.741019532451494e-57</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.607206126011965e-57</v>
+        <v>1.612785158799014e-57</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.526455717138534e-57</v>
+        <v>1.53219870392982e-57</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.487128145087941e-57</v>
+        <v>1.492957669871908e-57</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.482909837974624e-57</v>
+        <v>1.488759558653123e-57</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.507487223913026e-57</v>
+        <v>1.513301872301321e-57</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.554546731017612e-57</v>
+        <v>1.560282112844377e-57</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.617774787402768e-57</v>
+        <v>1.623397782310085e-57</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.690857821183056e-57</v>
+        <v>1.696346382726421e-57</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.767482260472807e-57</v>
+        <v>1.772825416121123e-57</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.841334533386608e-57</v>
+        <v>1.84653238452219e-57</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.906101068038839e-57</v>
+        <v>1.91116478995741e-57</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.955588756252445e-57</v>
+        <v>1.960540208261093e-57</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.986872188781717e-57</v>
+        <v>1.991733337714719e-57</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.000596243036026e-57</v>
+        <v>2.005377607392117e-57</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.997586926503722e-57</v>
+        <v>2.002286990186637e-57</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.978670246673176e-57</v>
+        <v>1.983275458991648e-57</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.944672211032759e-57</v>
+        <v>1.949156986700521e-57</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.896418827070897e-57</v>
+        <v>1.900745546206679e-57</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.834736102275881e-57</v>
+        <v>1.838855110403411e-57</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.760450919614744e-57</v>
+        <v>1.764300536104787e-57</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.675086219764107e-57</v>
+        <v>1.678599449758177e-57</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.582111655605759e-57</v>
+        <v>1.585234961712239e-57</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.485334600316158e-57</v>
+        <v>1.488031159169093e-57</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.388562427071778e-57</v>
+        <v>1.390812129330873e-57</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.295602509048828e-57</v>
+        <v>1.297401959399448e-57</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.210262219423854e-57</v>
+        <v>1.211624736577024e-57</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.136348931373085e-57</v>
+        <v>1.137304548065493e-57</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.07767001807299e-57</v>
+        <v>1.078265481066982e-57</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.038032852699981e-57</v>
+        <v>1.038331622783565e-57</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.02124480843037e-57</v>
+        <v>1.021327060417214e-57</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.031113258440588e-57</v>
+        <v>1.031075881170021e-57</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.071445575906971e-57</v>
+        <v>1.071402172243982e-57</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.146049134005975e-57</v>
+        <v>1.146130020841213e-57</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.257767012037994e-57</v>
+        <v>1.258115681580632e-57</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.397375999249646e-57</v>
+        <v>1.398104838888501e-57</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.547441251475788e-57</v>
+        <v>1.548601409225434e-57</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.690370538371252e-57</v>
+        <v>1.691951345305771e-57</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.808571629591379e-57</v>
+        <v>1.810500599844357e-57</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.884452294791103e-57</v>
+        <v>1.886595125555633e-57</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.904257510293242e-57</v>
+        <v>1.906432412662067e-57</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.889310335320335e-57</v>
+        <v>1.891419040625123e-57</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.87973314170949e-57</v>
+        <v>1.8818311114332e-57</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.967999280335496e-57</v>
+        <v>1.970334443920759e-57</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.276925450661461e-57</v>
+        <v>2.279850847562018e-57</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.660356902397769e-57</v>
+        <v>2.663957851656629e-57</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.943854780986771e-57</v>
+        <v>2.947913458797259e-57</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.970843481236659e-57</v>
+        <v>2.974873566816966e-57</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.77305246382833e-57</v>
+        <v>2.776664358176286e-57</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.49509760988374e-57</v>
+        <v>2.498217379636401e-57</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.281922533814108e-57</v>
+        <v>2.284791676979846e-57</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.188214985379232e-57</v>
+        <v>2.191150085824685e-57</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.120706695501528e-57</v>
+        <v>2.123708128685059e-57</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.031714605097649e-57</v>
+        <v>2.034634526408777e-57</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.924215758223021e-57</v>
+        <v>1.926932311415234e-57</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.802773807343435e-57</v>
+        <v>1.80519658051528e-57</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.671952404924965e-57</v>
+        <v>1.674022430520045e-57</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.53631520343372e-57</v>
+        <v>1.538004958240699e-57</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.400425855335438e-57</v>
+        <v>1.401739260488039e-57</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.268682524909213e-57</v>
+        <v>1.269653788683552e-57</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.143109824456451e-57</v>
+        <v>1.143786844828501e-57</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.023956314244302e-57</v>
+        <v>1.024388259561453e-57</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>9.114277255371944e-58</v>
+        <v>9.116647350295904e-58</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>8.057297895995299e-58</v>
+        <v>8.058229733800664e-58</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.070682376954307e-58</v>
+        <v>7.070696767597547e-58</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>6.156488010893854e-58</v>
+        <v>6.15611547315896e-58</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>5.316772110455401e-58</v>
+        <v>5.316552871953881e-58</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>4.553596805934533e-58</v>
+        <v>4.55408046815424e-58</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>3.870390258048089e-58</v>
+        <v>3.872040821968933e-58</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>3.273818129785445e-58</v>
+        <v>3.276788905881197e-58</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.771015134314763e-58</v>
+        <v>2.77511613145519e-58</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.369115984803865e-58</v>
+        <v>2.373813910254741e-58</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.074405138956927e-58</v>
+        <v>2.078844821417527e-58</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.878875868447209e-58</v>
+        <v>1.882240338788124e-58</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.76265806181608e-58</v>
+        <v>1.764467462892684e-58</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.705522195312362e-58</v>
+        <v>1.705642837717287e-58</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.687238745185216e-58</v>
+        <v>1.685883107248358e-58</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.687578187683642e-58</v>
+        <v>1.685304915472156e-58</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.686310999056687e-58</v>
+        <v>1.684024906374991e-58</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.664968284698943e-58</v>
+        <v>1.663862983367674e-58</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.623018063277903e-58</v>
+        <v>1.62399149268289e-58</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.570402343058601e-58</v>
+        <v>1.573715477458466e-58</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.517194386477133e-58</v>
+        <v>1.522466958114432e-58</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.473467455969446e-58</v>
+        <v>1.479677955070673e-58</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.449245413671765e-58</v>
+        <v>1.454734899111582e-58</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.4469649941196e-58</v>
+        <v>1.450022352940281e-58</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.453371018164928e-58</v>
+        <v>1.453443416005694e-58</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.453941919630852e-58</v>
+        <v>1.451725175970028e-58</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.443558804879922e-58</v>
+        <v>1.440170622380415e-58</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.423981956514482e-58</v>
+        <v>1.420357039696864e-58</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.39712906273131e-58</v>
+        <v>1.394005277406062e-58</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.364917811727216e-58</v>
+        <v>1.362836184994727e-58</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.329265891698917e-58</v>
+        <v>1.32857061194949e-58</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.292090990843252e-58</v>
+        <v>1.292929407757096e-58</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.255300290272369e-58</v>
+        <v>1.257624007031612e-58</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.220090495004427e-58</v>
+        <v>1.223729222321322e-58</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.186508396231666e-58</v>
+        <v>1.191289485952672e-58</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.154495951525096e-58</v>
+        <v>1.160255294091436e-58</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.123995118455817e-58</v>
+        <v>1.130577142903482e-58</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.094947854594926e-58</v>
+        <v>1.102205528554667e-58</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.06729611751344e-58</v>
+        <v>1.075090947210777e-58</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.040981864782456e-58</v>
+        <v>1.049183895037672e-58</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.015947053973066e-58</v>
+        <v>1.024434868201209e-58</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>9.921336426562962e-59</v>
+        <v>1.000794362867178e-58</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>9.694835884032585e-59</v>
+        <v>9.782128752014574e-59</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>9.479388487849826e-59</v>
+        <v>9.566409013698407e-59</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.274413813725599e-59</v>
+        <v>9.360289375381842e-59</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.079331437370771e-59</v>
+        <v>9.163274798723396e-59</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>8.893560934495696e-59</v>
+        <v>8.974870245381073e-59</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>8.716521880811255e-59</v>
+        <v>8.794580677013393e-59</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>8.547633852028298e-59</v>
+        <v>8.62191105527886e-59</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>8.386316423857221e-59</v>
+        <v>8.456366341835517e-59</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>8.231989172008883e-59</v>
+        <v>8.29745149834187e-59</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>8.084071672194114e-59</v>
+        <v>8.1446714864564e-59</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>7.941983500123352e-59</v>
+        <v>7.997531267837185e-59</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>7.805144231507552e-59</v>
+        <v>7.85553580414284e-59</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>7.672973442057171e-59</v>
+        <v>7.718190057031458e-59</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>7.544890707483036e-59</v>
+        <v>7.584998988161519e-59</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>7.420315603495847e-59</v>
+        <v>7.45546755919137e-59</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>7.298667705806417e-59</v>
+        <v>7.329100731779476e-59</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>7.179366590125224e-59</v>
+        <v>7.205403467583958e-59</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>7.061915247779593e-59</v>
+        <v>7.083952103184574e-59</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>6.946281218792449e-59</v>
+        <v>6.964720468196078e-59</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>6.83259280975797e-59</v>
+        <v>6.847819952822616e-59</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>6.720978482621888e-59</v>
+        <v>6.733362080195539e-59</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>6.611566699329637e-59</v>
+        <v>6.621458373445896e-59</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>6.504485921826948e-59</v>
+        <v>6.512220355705037e-59</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>6.399864612059554e-59</v>
+        <v>6.405759550104315e-59</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>6.2978312319729e-59</v>
+        <v>6.302187479774783e-59</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>6.198514243512714e-59</v>
+        <v>6.201615667847796e-59</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>6.102042108624714e-59</v>
+        <v>6.104155637454688e-59</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>6.008543289254365e-59</v>
+        <v>6.009918911726537e-59</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>5.918146247347462e-59</v>
+        <v>5.919017013794761e-59</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>5.830979444849485e-59</v>
+        <v>5.831561466790453e-59</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>5.747171343706143e-59</v>
+        <v>5.747663793844942e-59</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>5.666850405863147e-59</v>
+        <v>5.667435518089553e-59</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>5.590145093265983e-59</v>
+        <v>5.590988162655395e-59</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>5.517183867860359e-59</v>
+        <v>5.51843325067379e-59</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>5.448095191591972e-59</v>
+        <v>5.449882305276052e-59</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>5.383007526406327e-59</v>
+        <v>5.385446849593307e-59</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>5.322049334249127e-59</v>
+        <v>5.325238406756872e-59</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>5.265349077066053e-59</v>
+        <v>5.269368499898046e-59</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>5.213035216802639e-59</v>
+        <v>5.21794865214798e-59</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>5.165236215404609e-59</v>
+        <v>5.171090386638017e-59</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>5.122080534817514e-59</v>
+        <v>5.128905226499327e-59</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>5.083696636987032e-59</v>
+        <v>5.091504694863201e-59</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>5.050212983858827e-59</v>
+        <v>5.059000314860923e-59</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>5.02175803737847e-59</v>
+        <v>5.031503609623681e-59</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.99846025949163e-59</v>
+        <v>5.009126102282762e-59</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.980448112143952e-59</v>
+        <v>4.991979315969429e-59</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.96785005728104e-59</v>
+        <v>4.980174773814901e-59</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>4.960794556848545e-59</v>
+        <v>4.973823998950451e-59</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.959410072792102e-59</v>
+        <v>4.973038514507327e-59</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.963825067057342e-59</v>
+        <v>4.977929843616779e-59</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.974168001589888e-59</v>
+        <v>4.988609509410049e-59</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.990567338335398e-59</v>
+        <v>5.005189035018408e-59</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>5.013170642281013e-59</v>
+        <v>5.027804209719409e-59</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>5.042215741347363e-59</v>
+        <v>5.056705481681331e-59</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>5.077967097449607e-59</v>
+        <v>5.092177131612038e-59</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>5.120689176363401e-59</v>
+        <v>5.134503445123257e-59</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.170646443864248e-59</v>
+        <v>5.183968707826565e-59</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.228103365727831e-59</v>
+        <v>5.240857205333719e-59</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.293324407729693e-59</v>
+        <v>5.305453223256336e-59</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>5.366574035645351e-59</v>
+        <v>5.378041047206008e-59</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>5.448116715250525e-59</v>
+        <v>5.458904962794528e-59</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>5.53821691232074e-59</v>
+        <v>5.548329255633496e-59</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>5.637139092631491e-59</v>
+        <v>5.646598211334478e-59</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>5.745054581754897e-59</v>
+        <v>5.753902175623718e-59</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>5.860470995445917e-59</v>
+        <v>5.868753500152121e-59</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>5.980461318377445e-59</v>
+        <v>5.98821758805158e-59</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>6.10205152619183e-59</v>
+        <v>6.10931242981393e-59</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>6.22226759453101e-59</v>
+        <v>6.22905601593058e-59</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>6.338135499037343e-59</v>
+        <v>6.344466336893362e-59</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>6.446681215352863e-59</v>
+        <v>6.452561383193793e-59</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>6.544930719119631e-59</v>
+        <v>6.550359145323406e-59</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>6.629909985979965e-59</v>
+        <v>6.634877613773998e-59</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>6.698644991575916e-59</v>
+        <v>6.703134779037095e-59</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>6.748161711549592e-59</v>
+        <v>6.752148631604284e-59</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>6.775486121543227e-59</v>
+        <v>6.778937161967273e-59</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>6.777644197198906e-59</v>
+        <v>6.780518360617624e-59</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>6.751661914158815e-59</v>
+        <v>6.753910218047001e-59</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>6.694565248065046e-59</v>
+        <v>6.696130724746972e-59</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>6.605100370607887e-59</v>
+        <v>6.605925199012122e-59</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>6.489949797715395e-59</v>
+        <v>6.490008206636817e-59</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>6.358083289383039e-59</v>
+        <v>6.357391040160063e-59</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>6.218470819102236e-59</v>
+        <v>6.217085206501956e-59</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>6.080082360364023e-59</v>
+        <v>6.078102212582203e-59</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.951887886659819e-59</v>
+        <v>5.949453565320898e-59</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.842857371481006e-59</v>
+        <v>5.840150771638092e-59</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.761960788318676e-59</v>
+        <v>5.759205338453556e-59</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.718157332349204e-59</v>
+        <v>5.715617925449029e-59</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.717067347451099e-59</v>
+        <v>5.715028990299277e-59</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.756262315072932e-59</v>
+        <v>5.754978658775018e-59</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.832125249265474e-59</v>
+        <v>5.831810989443304e-59</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>5.941039164079366e-59</v>
+        <v>5.941870040871044e-59</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>6.079387073565559e-59</v>
+        <v>6.081499871625472e-59</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>6.243551991774719e-59</v>
+        <v>6.247044540273527e-59</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>6.429916932757427e-59</v>
+        <v>6.434848105382066e-59</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>6.63486491056477e-59</v>
+        <v>6.641254625518452e-59</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>6.854636712080908e-59</v>
+        <v>6.86246496163547e-59</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>7.083737591725424e-59</v>
+        <v>7.092932600296534e-59</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>7.315512825637078e-59</v>
+        <v>7.325943134993911e-59</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>7.543286464003317e-59</v>
+        <v>7.55476078843917e-59</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>7.760382557012205e-59</v>
+        <v>7.772649783344486e-59</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>7.960125154851188e-59</v>
+        <v>7.972874342421421e-59</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>8.135838307707773e-59</v>
+        <v>8.148698688381595e-59</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>8.280846065769928e-59</v>
+        <v>8.293387043937095e-59</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>8.388472479225137e-59</v>
+        <v>8.400203631799517e-59</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>8.452293243032183e-59</v>
+        <v>8.462676202391166e-59</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>8.469466515303907e-59</v>
+        <v>8.478084137089409e-59</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>8.439817597810433e-59</v>
+        <v>8.446499906349182e-59</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>8.363235363119522e-59</v>
+        <v>8.368062553305142e-59</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>8.23960868379899e-59</v>
+        <v>8.242911121092022e-59</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>8.068826432416812e-59</v>
+        <v>8.07118465284471e-59</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>7.850778381043285e-59</v>
+        <v>7.853023000622726e-59</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>7.586813748708529e-59</v>
+        <v>7.589878500792773e-59</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>7.282709037377595e-59</v>
+        <v>7.287184956356017e-59</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>6.945077106533283e-59</v>
+        <v>6.951128308724469e-59</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>6.580530815594354e-59</v>
+        <v>6.587894499279492e-59</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>6.195507135947105e-59</v>
+        <v>6.203584149550265e-59</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>5.795754565972513e-59</v>
+        <v>5.80396391624553e-59</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>5.386853175129492e-59</v>
+        <v>5.394718754491417e-59</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>4.974383032875499e-59</v>
+        <v>4.981533619412605e-59</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>4.563924208669095e-59</v>
+        <v>4.570093466134874e-59</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>4.16105677196849e-59</v>
+        <v>4.166083249783648e-59</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.771360792232217e-59</v>
+        <v>3.775187925484686e-59</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.400416338917775e-59</v>
+        <v>3.403092448362698e-59</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>3.05380348148402e-59</v>
+        <v>3.055481773543765e-59</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.736271469815745e-59</v>
+        <v>2.737194122303784e-59</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.447785606216055e-59</v>
+        <v>2.44819213224025e-59</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.18660239292216e-59</v>
+        <v>2.186696908969245e-59</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.950976199522033e-59</v>
+        <v>1.95092738460692e-59</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.739161395604371e-59</v>
+        <v>1.739102491270149e-59</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.549412350757777e-59</v>
+        <v>1.549441161075713e-59</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.379983434570359e-59</v>
+        <v>1.380162326139896e-59</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.229129016630741e-59</v>
+        <v>1.2294849185795e-59</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.095105882843099e-59</v>
+        <v>1.095630423160117e-59</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.764051026552717e-60</v>
+        <v>9.770678269255468e-60</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>8.719444471831479e-60</v>
+        <v>8.727168939280338e-60</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>7.806869797927012e-60</v>
+        <v>7.815452359470283e-60</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.01595763850193e-60</v>
+        <v>7.025204647622672e-60</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>6.3363386272184e-60</v>
+        <v>6.34610192153444e-60</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>5.757643397736821e-60</v>
+        <v>5.767820299000741e-60</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>5.269502583719459e-60</v>
+        <v>5.280035897818605e-60</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.861546818828259e-60</v>
+        <v>4.872424835784737e-60</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>4.523395814509691e-60</v>
+        <v>4.534649435122769e-60</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>4.244410309311964e-60</v>
+        <v>4.256044915956416e-60</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>4.013687681841173e-60</v>
+        <v>4.025613855146009e-60</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.820313511002287e-60</v>
+        <v>3.832343925648817e-60</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>3.653373375701054e-60</v>
+        <v>3.665222800422877e-60</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>3.501952854842553e-60</v>
+        <v>3.513238152425566e-60</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.355137527332327e-60</v>
+        <v>3.365377654614718e-60</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.202012972075889e-60</v>
+        <v>3.210628979948148e-60</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.031664767978354e-60</v>
+        <v>3.037979801383257e-60</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.839071114014905e-60</v>
+        <v>2.842487639921785e-60</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.644661673926928e-60</v>
+        <v>2.645426966207523e-60</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.475736153522713e-60</v>
+        <v>2.475148918123711e-60</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.359105903892452e-60</v>
+        <v>2.359488507498631e-60</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.290053503368678e-60</v>
+        <v>2.292959206636429e-60</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.221083035865952e-60</v>
+        <v>2.2249314428901e-60</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.147653083328711e-60</v>
+        <v>2.150606972797062e-60</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.083908814514476e-60</v>
+        <v>2.085107821290126e-60</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.044040582442525e-60</v>
+        <v>2.043604180612185e-60</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.041540839148312e-60</v>
+        <v>2.040536358284928e-60</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.073777936796134e-60</v>
+        <v>2.073481619060473e-60</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.121955815302111e-60</v>
+        <v>2.123112025089604e-60</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.166572451107297e-60</v>
+        <v>2.169361321818991e-60</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.188125820652887e-60</v>
+        <v>2.192163254695446e-60</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.167124276214583e-60</v>
+        <v>2.171462214091945e-60</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.094860107102823e-60</v>
+        <v>2.098266202990532e-60</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.9938025213321e-60</v>
+        <v>1.995568699601375e-60</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.8920219226577e-60</v>
+        <v>1.892109641857472e-60</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.816371369579886e-60</v>
+        <v>1.815385740986374e-60</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.770864052919039e-60</v>
+        <v>1.769568251997412e-60</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.73921770229977e-60</v>
+        <v>1.738101475690474e-60</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.704443809785336e-60</v>
+        <v>1.703708460293063e-60</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.65295183481948e-60</v>
+        <v>1.652563185051443e-60</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.585535454747548e-60</v>
+        <v>1.585448051888998e-60</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.506793901134836e-60</v>
+        <v>1.507010333585919e-60</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.421326429770979e-60</v>
+        <v>1.421897327524309e-60</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.333732296445635e-60</v>
+        <v>1.3347563310863e-60</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.248610497750992e-60</v>
+        <v>1.250234370870373e-60</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.169630667877939e-60</v>
+        <v>1.172007568360334e-60</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.097444921097213e-60</v>
+        <v>1.10059964128448e-60</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.032094014585577e-60</v>
+        <v>1.035895622474248e-60</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>9.736187055199954e-61</v>
+        <v>9.77780544761276e-61</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>9.220597510774054e-61</v>
+        <v>9.261394409771756e-61</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>8.77457908434609e-61</v>
+        <v>8.808573439534226e-61</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>8.398539127881958e-61</v>
+        <v>8.418192745664686e-61</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>8.082636848358565e-61</v>
+        <v>8.083527387422256e-61</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>7.793557424097172e-61</v>
+        <v>7.784644935800991e-61</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.525110154761585e-61</v>
+        <v>7.515264479485949e-61</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.276615042867441e-61</v>
+        <v>7.271932818748516e-61</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>7.047392090929723e-61</v>
+        <v>7.051196753859444e-61</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.836761301464277e-61</v>
+        <v>6.849603085090332e-61</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.643876041678808e-61</v>
+        <v>6.663953454467249e-61</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.467099626558562e-61</v>
+        <v>6.49225776112912e-61</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.304561464254181e-61</v>
+        <v>6.332883626892176e-61</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.154390927008894e-61</v>
+        <v>6.184198728486126e-61</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.01471738706637e-61</v>
+        <v>6.044570742641123e-61</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.883670216670242e-61</v>
+        <v>5.912367346087283e-61</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.759378788063794e-61</v>
+        <v>5.785956215554372e-61</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.639972473490665e-61</v>
+        <v>5.663705027772516e-61</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.52358064519448e-61</v>
+        <v>5.54398145947182e-61</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>5.408332675418548e-61</v>
+        <v>5.425153187382073e-61</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>5.292357936406598e-61</v>
+        <v>5.305587888233494e-61</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>5.17378952556101e-61</v>
+        <v>5.183656574694903e-61</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>5.051476372505252e-61</v>
+        <v>5.058371298543207e-61</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>4.925829671675024e-61</v>
+        <v>4.930143144474302e-61</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>4.797466704222804e-61</v>
+        <v>4.799567751107721e-61</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>4.66700475130141e-61</v>
+        <v>4.667240757063347e-61</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>4.535061094063673e-61</v>
+        <v>4.533757800961073e-61</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>4.402253013662055e-61</v>
+        <v>4.399714521420426e-61</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>4.269197791249386e-61</v>
+        <v>4.265706557061295e-61</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>4.136512707978489e-61</v>
+        <v>4.132329546503568e-61</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>4.004815045001834e-61</v>
+        <v>4.000179128366774e-61</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.874722083472362e-61</v>
+        <v>3.869850941270921e-61</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.746851104542546e-61</v>
+        <v>3.74194062383554e-61</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.621819389365211e-61</v>
+        <v>3.617043814680522e-61</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.50024421909317e-61</v>
+        <v>3.495756152425741e-61</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.382742874878912e-61</v>
+        <v>3.378673275690748e-61</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.269932637875254e-61</v>
+        <v>3.266390823095422e-61</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.162430789234997e-61</v>
+        <v>3.159504433259629e-61</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.060854610110656e-61</v>
+        <v>3.058609744802943e-61</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.965821381655033e-61</v>
+        <v>2.964302396345231e-61</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.877813805082318e-61</v>
+        <v>2.877042987856361e-61</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.796693842564513e-61</v>
+        <v>2.796669264494993e-61</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.722144606464843e-61</v>
+        <v>2.722839512007199e-61</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.65384919253951e-61</v>
+        <v>2.655211999475426e-61</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.591490696544918e-61</v>
+        <v>2.593444995982324e-61</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.534752214237403e-61</v>
+        <v>2.53719677061047e-61</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.483316841373343e-61</v>
+        <v>2.486125592442488e-61</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.436867673708983e-61</v>
+        <v>2.439889730560865e-61</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.39508780700074e-61</v>
+        <v>2.398147454048265e-61</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.357660337004876e-61</v>
+        <v>2.360557031987192e-61</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.324268359477765e-61</v>
+        <v>2.326776733460265e-61</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.294594970175767e-61</v>
+        <v>2.296464827550089e-61</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.268323264855164e-61</v>
+        <v>2.269279583339188e-61</v>
       </c>
     </row>
   </sheetData>
